--- a/DataBase/Control de inserts.xlsx
+++ b/DataBase/Control de inserts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>users</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Tabla</t>
@@ -566,7 +563,7 @@
   <dimension ref="B3:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,13 +574,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -780,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1"/>
     </row>

--- a/DataBase/Control de inserts.xlsx
+++ b/DataBase/Control de inserts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Proyectos\BuscoPiso\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\buscoPiso\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>users</t>
   </si>
@@ -158,9 +158,6 @@
     <t>garages_users</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Tabla</t>
   </si>
   <si>
@@ -168,13 +165,82 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>2 = Errores en el INSERT</t>
+  </si>
+  <si>
+    <t>0 = Hecho</t>
+  </si>
+  <si>
+    <t>1 = Pendiente</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Error Code: 1364. Field 'idchats' doesn't have a default value</t>
+  </si>
+  <si>
+    <t>INSERT INTO chats (text,text_time,users_users_id_user1,users_users_id_user2) VALUE ('Saludo usu1',date(now()),1,2);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
+(`buscopiso`.`payments`, CONSTRAINT `fk_payments_payment_type1` FOREIGN KEY 
+(`payment_type_idpayment_type`) REFERENCES `payment_type` (`idpayment_type`) 
+ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>Codigo de test</t>
+  </si>
+  <si>
+    <t>INSERT INTO payments (payment_date,date_of_expiry,price,iva,users_users_id_user,business_office_idoffice,
+payment_type_idpayment_type,payment_methods_idpayment_methods) VALUES (date(now()),date(now()),2000,21,1,1,1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
+(`buscopiso`.`garages`, CONSTRAINT `fk_garages_garages_features1` FOREIGN KEY (`garages_features_idgarages_features`) REFERENCES `garages_features` (`idgarages_features`) ON DELETE NO ACTION ON)</t>
+  </si>
+  <si>
+    <t>INSERT INTO garages (price,publication_date,garages_features_idgarages_features,type_of_contract_idtype_of_contract,
+municipalities_idmunicipalities,road_types_roadType_id_roadType) VALUES (10000,Date(now()),1,1,1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
+ (`buscopiso`.`garages_search_users`, CONSTRAINT `fk_garages_garages_features10` FOREIGN KEY (`garages_features_idgarages_features`) REFERENCES `garages_features` (`idgarages_features`) ON DELET)</t>
+  </si>
+  <si>
+    <t>INSERT INTO garages_search_users (price,publication_date,garages_features_idgarages_features,
+type_of_contract_idtype_of_contract,municipalities_idmunicipalities,users_users_id_user) VALUES (10000,date(now()),1,1,1,1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO lands_search_users (price,square_meters,land_type_idland_type,municipalities_idmunicipalities,
+type_of_contract_idtype_of_contract,users_users_id_user) VALUES (99393,80,1,1,1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
+(`buscopiso`.`lands_search_users`, CONSTRAINT `fk_lands_land_type10` FOREIGN KEY (`land_type_idland_type`) REFERENCES `land_type` (`idland_type`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>INSERT INTO locals_warehouses_images (name,locals_warehouses_idlocals_warehouses) VALUES ('1.jpg',1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1364. Field 'idlocals_warehouses_images' doesn't have a default value</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
+(`buscopiso`.`locals_warehouses_search_users`, CONSTRAINT `fk_locals_warehouses_locals_warehouses_features10` FOREIGN KEY (`locals_warehouses_features_idlocals_warehouses_features`) REFERENCES )</t>
+  </si>
+  <si>
+    <t>INSERT INTO locals_warehouses_search_users (price,square_meters,publication_date,location_idlocation,
+locals_warehouses_features_idlocals_warehouses_features,municipalities_idmunicipalities,type_of_contract_idtype_of_contract,users_users_id_user) VALUES (48958,89,date(now()),1,1,1,1,1);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +256,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +290,23 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -242,18 +344,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -560,391 +754,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D48"/>
+  <dimension ref="A3:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="E44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBase/Control de inserts.xlsx
+++ b/DataBase/Control de inserts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>users</t>
   </si>
@@ -234,6 +234,35 @@
   <si>
     <t>INSERT INTO locals_warehouses_search_users (price,square_meters,publication_date,location_idlocation,
 locals_warehouses_features_idlocals_warehouses_features,municipalities_idmunicipalities,type_of_contract_idtype_of_contract,users_users_id_user) VALUES (48958,89,date(now()),1,1,1,1,1);</t>
+  </si>
+  <si>
+    <t>INSERT INTO lands (price,square_meters,land_type_idland_type,municipalities_idmunicipalities,
+type_of_contract_idtype_of_contract,road_types_roadType_id_roadType) VALUES (34531,165,1,1,1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
+ (`buscopiso`.`lands`, CONSTRAINT `fk_lands_land_type1` FOREIGN KEY (`land_type_idland_type`) REFERENCES `land_type` (`idland_type`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>INSERT INTO lands_images (name,lands_idlands,idlands_images) VALUES ('Casa1',1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
+ (`buscopiso`.`lands_images`, CONSTRAINT `fk_lands_images_lands1` FOREIGN KEY (`lands_idlands`) REFERENCES `lands` (`idlands`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>INSERT INTO lands_users (lands_idlands,users_users_id_user) VALUES (1,1);</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
+ (`buscopiso`.`lands_users`, CONSTRAINT `fk_lands_users_lands1` FOREIGN KEY (`lands_idlands`) REFERENCES `lands` (`idlands`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
+(`buscopiso`.`garages_users`, CONSTRAINT `fk_garages_users_garages1` FOREIGN KEY (`garages_idgarages`) REFERENCES `garages` (`idgarages`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
+  </si>
+  <si>
+    <t>INSERT INTO garages_users (garages_idgarages,users_users_id_user) VALUES (1,1);</t>
   </si>
 </sst>
 </file>
@@ -391,7 +420,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
@@ -409,13 +438,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
@@ -428,12 +451,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -754,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F48"/>
+  <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,11 +811,11 @@
       <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -807,11 +824,11 @@
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -820,201 +837,201 @@
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
@@ -1023,10 +1040,10 @@
       <c r="D26" s="8">
         <v>2</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1034,11 +1051,11 @@
       <c r="C27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
@@ -1047,10 +1064,10 @@
       <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1061,10 +1078,10 @@
       <c r="D29" s="8">
         <v>2</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1075,10 +1092,10 @@
       <c r="D30" s="8">
         <v>2</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1086,11 +1103,11 @@
       <c r="C31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
@@ -1099,10 +1116,10 @@
       <c r="D32" s="8">
         <v>2</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1110,11 +1127,11 @@
       <c r="C33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
@@ -1123,10 +1140,10 @@
       <c r="D34" s="8">
         <v>2</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1134,91 +1151,103 @@
       <c r="C35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="12">
-        <v>0</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="s">
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
@@ -1227,52 +1256,46 @@
       <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="11" t="s">
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Control de inserts.xlsx
+++ b/DataBase/Control de inserts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>users</t>
   </si>
@@ -185,84 +185,13 @@
     <t>INSERT INTO chats (text,text_time,users_users_id_user1,users_users_id_user2) VALUE ('Saludo usu1',date(now()),1,2);</t>
   </si>
   <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
-(`buscopiso`.`payments`, CONSTRAINT `fk_payments_payment_type1` FOREIGN KEY 
-(`payment_type_idpayment_type`) REFERENCES `payment_type` (`idpayment_type`) 
-ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
     <t>Codigo de test</t>
   </si>
   <si>
-    <t>INSERT INTO payments (payment_date,date_of_expiry,price,iva,users_users_id_user,business_office_idoffice,
-payment_type_idpayment_type,payment_methods_idpayment_methods) VALUES (date(now()),date(now()),2000,21,1,1,1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
-(`buscopiso`.`garages`, CONSTRAINT `fk_garages_garages_features1` FOREIGN KEY (`garages_features_idgarages_features`) REFERENCES `garages_features` (`idgarages_features`) ON DELETE NO ACTION ON)</t>
-  </si>
-  <si>
-    <t>INSERT INTO garages (price,publication_date,garages_features_idgarages_features,type_of_contract_idtype_of_contract,
-municipalities_idmunicipalities,road_types_roadType_id_roadType) VALUES (10000,Date(now()),1,1,1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
- (`buscopiso`.`garages_search_users`, CONSTRAINT `fk_garages_garages_features10` FOREIGN KEY (`garages_features_idgarages_features`) REFERENCES `garages_features` (`idgarages_features`) ON DELET)</t>
-  </si>
-  <si>
-    <t>INSERT INTO garages_search_users (price,publication_date,garages_features_idgarages_features,
-type_of_contract_idtype_of_contract,municipalities_idmunicipalities,users_users_id_user) VALUES (10000,date(now()),1,1,1,1);</t>
-  </si>
-  <si>
-    <t>INSERT INTO lands_search_users (price,square_meters,land_type_idland_type,municipalities_idmunicipalities,
-type_of_contract_idtype_of_contract,users_users_id_user) VALUES (99393,80,1,1,1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
-(`buscopiso`.`lands_search_users`, CONSTRAINT `fk_lands_land_type10` FOREIGN KEY (`land_type_idland_type`) REFERENCES `land_type` (`idland_type`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
     <t>INSERT INTO locals_warehouses_images (name,locals_warehouses_idlocals_warehouses) VALUES ('1.jpg',1);</t>
   </si>
   <si>
     <t>Error Code: 1364. Field 'idlocals_warehouses_images' doesn't have a default value</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
-(`buscopiso`.`locals_warehouses_search_users`, CONSTRAINT `fk_locals_warehouses_locals_warehouses_features10` FOREIGN KEY (`locals_warehouses_features_idlocals_warehouses_features`) REFERENCES )</t>
-  </si>
-  <si>
-    <t>INSERT INTO locals_warehouses_search_users (price,square_meters,publication_date,location_idlocation,
-locals_warehouses_features_idlocals_warehouses_features,municipalities_idmunicipalities,type_of_contract_idtype_of_contract,users_users_id_user) VALUES (48958,89,date(now()),1,1,1,1,1);</t>
-  </si>
-  <si>
-    <t>INSERT INTO lands (price,square_meters,land_type_idland_type,municipalities_idmunicipalities,
-type_of_contract_idtype_of_contract,road_types_roadType_id_roadType) VALUES (34531,165,1,1,1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
- (`buscopiso`.`lands`, CONSTRAINT `fk_lands_land_type1` FOREIGN KEY (`land_type_idland_type`) REFERENCES `land_type` (`idland_type`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
-    <t>INSERT INTO lands_images (name,lands_idlands,idlands_images) VALUES ('Casa1',1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
- (`buscopiso`.`lands_images`, CONSTRAINT `fk_lands_images_lands1` FOREIGN KEY (`lands_idlands`) REFERENCES `lands` (`idlands`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
-    <t>INSERT INTO lands_users (lands_idlands,users_users_id_user) VALUES (1,1);</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails
- (`buscopiso`.`lands_users`, CONSTRAINT `fk_lands_users_lands1` FOREIGN KEY (`lands_idlands`) REFERENCES `lands` (`idlands`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
-    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails 
-(`buscopiso`.`garages_users`, CONSTRAINT `fk_garages_users_garages1` FOREIGN KEY (`garages_idgarages`) REFERENCES `garages` (`idgarages`) ON DELETE NO ACTION ON UPDATE NO ACTION)</t>
-  </si>
-  <si>
-    <t>INSERT INTO garages_users (garages_idgarages,users_users_id_user) VALUES (1,1);</t>
   </si>
 </sst>
 </file>
@@ -453,10 +382,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,19 +962,15 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
@@ -1057,33 +982,25 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
@@ -1093,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -1109,19 +1026,15 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="10" t="s">
@@ -1133,19 +1046,15 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8">
-        <v>2</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
@@ -1177,33 +1086,25 @@
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
@@ -1235,19 +1136,15 @@
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
@@ -1283,19 +1180,15 @@
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
